--- a/MainTop/22.08.2025 Таня Озон/spros_print_sorted.xlsx
+++ b/MainTop/22.08.2025 Таня Озон/spros_print_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\22.08.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8765B4E-C035-4161-B0F3-621D518F8C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D9A2DA-58EE-4747-A092-BA9E7A88D3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,7 +1405,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -1423,7 +1423,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I7" s="2">
         <v>2</v>
@@ -1452,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3">
         <v>2</v>
@@ -4309,7 +4309,7 @@
         <v>158</v>
       </c>
       <c r="B73" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" s="4">
         <v>0</v>

--- a/MainTop/22.08.2025 Таня Озон/spros_print_sorted.xlsx
+++ b/MainTop/22.08.2025 Таня Озон/spros_print_sorted.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\22.08.2025 Таня Озон\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\22.08.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8765B4E-C035-4161-B0F3-621D518F8C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8008D7EA-B8B8-4244-8231-725921B92044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="125">
   <si>
     <t>Артикул</t>
   </si>
@@ -52,12 +63,6 @@
     <t>Num_Copies</t>
   </si>
   <si>
-    <t>осталось</t>
-  </si>
-  <si>
-    <t>Место</t>
-  </si>
-  <si>
     <t>Тип упорядочить</t>
   </si>
   <si>
@@ -67,9 +72,6 @@
     <t>Термонаклейка Цветы Мак фиолетовый</t>
   </si>
   <si>
-    <t>у14</t>
-  </si>
-  <si>
     <t>1_а4</t>
   </si>
   <si>
@@ -79,655 +81,331 @@
     <t>Термонаклейка Цветы Пионы надпись</t>
   </si>
   <si>
-    <t>у1</t>
-  </si>
-  <si>
     <t>Термонаклейка Подсолнухи Цветы</t>
   </si>
   <si>
-    <t>т21</t>
-  </si>
-  <si>
     <t>Термонаклейка Перья Яркие Wild Spirit</t>
   </si>
   <si>
-    <t>у26</t>
-  </si>
-  <si>
     <t>Термонаклейка Сердце Море Силует</t>
   </si>
   <si>
-    <t>т34</t>
-  </si>
-  <si>
     <t>Термонаклейка набор Щенячий Патруль Paw Patrol</t>
   </si>
   <si>
-    <t>е3</t>
-  </si>
-  <si>
     <t>Термонаклейки Nike Найк набор</t>
   </si>
   <si>
-    <t>у22</t>
-  </si>
-  <si>
     <t>Термонаклейка Золотой лев в изысканном узоре</t>
   </si>
   <si>
-    <t>в14</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Синий Акварель</t>
   </si>
   <si>
-    <t>т23</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Тюльпаны 5шт белые</t>
   </si>
   <si>
-    <t>у3</t>
-  </si>
-  <si>
     <t>Термонаклейка Пара леопардов в ночной листве</t>
   </si>
   <si>
-    <t>в13</t>
-  </si>
-  <si>
     <t>Термонаклейка Чёрная кошка с узорами на фоне луны</t>
   </si>
   <si>
-    <t>в3</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Магнолия 3шт розовые</t>
   </si>
   <si>
-    <t>у8</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Пионы розовый Peonies</t>
   </si>
   <si>
-    <t>у17</t>
-  </si>
-  <si>
     <t>Термонаклейка Перья Украшение Ожерелье</t>
   </si>
   <si>
-    <t>у15</t>
-  </si>
-  <si>
     <t>Термонаклейка Воздушный шар из пионов</t>
   </si>
   <si>
-    <t>в50</t>
-  </si>
-  <si>
     <t>Термонаклейка Лев Краски Дизайн</t>
   </si>
   <si>
-    <t>т9</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Магнолия белые Botanical</t>
   </si>
   <si>
-    <t>у20</t>
-  </si>
-  <si>
     <t>Термонаклейка Ловец снов акварель</t>
   </si>
   <si>
-    <t>в7</t>
-  </si>
-  <si>
     <t>Термонаклейка Бабочка зеленная листья</t>
   </si>
   <si>
-    <t>т30</t>
-  </si>
-  <si>
     <t>Термонаклейка Лотос розовый золотистый</t>
   </si>
   <si>
-    <t>т19</t>
-  </si>
-  <si>
     <t>Термонаклейка Чёрный кот на закате у моря и цветов</t>
   </si>
   <si>
-    <t>в6</t>
-  </si>
-  <si>
     <t>Термонаклейка Медведь, волк и матрёшка</t>
   </si>
   <si>
-    <t>в47</t>
-  </si>
-  <si>
     <t>Термонаклейка Сердце Большая волна в Канагаве</t>
   </si>
   <si>
-    <t>у28</t>
-  </si>
-  <si>
     <t>Термонаклейка набор Том и Джерри Tom and Jerry</t>
   </si>
   <si>
-    <t>е2</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка макияж Хэллоуин</t>
   </si>
   <si>
-    <t>у7</t>
-  </si>
-  <si>
     <t>Термонаклейка Египетская кошка в золоте</t>
   </si>
   <si>
-    <t>в59</t>
-  </si>
-  <si>
     <t>Термонаклейка Сердце разынй окрас</t>
   </si>
   <si>
-    <t>т14</t>
-  </si>
-  <si>
     <t>Термонаклейка набор Черепашки ниндзя turtles TMNT</t>
   </si>
   <si>
-    <t>е1</t>
-  </si>
-  <si>
     <t>Термонаклейка Инь Янь Кошки</t>
   </si>
   <si>
-    <t>т51</t>
-  </si>
-  <si>
     <t>Термонаклейка Карточная королева кричит</t>
   </si>
   <si>
-    <t>в17</t>
-  </si>
-  <si>
     <t>Термонаклейка набор Соник Sonic</t>
   </si>
   <si>
-    <t>е4</t>
-  </si>
-  <si>
     <t>Термонаклейка Леопард пятна сердечки голова</t>
   </si>
   <si>
-    <t>у33</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка Маска Доберман Собака</t>
   </si>
   <si>
-    <t>т29</t>
-  </si>
-  <si>
     <t>Термонаклейка Солнце Луна Звезды Астрология</t>
   </si>
   <si>
-    <t>у48</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Магнолия фиолетовая Garden</t>
   </si>
   <si>
-    <t>у23</t>
-  </si>
-  <si>
     <t>Термонаклейка Кит моряк волны лодка</t>
   </si>
   <si>
-    <t>у36</t>
-  </si>
-  <si>
     <t>Термонаклейка Мэрилин Монро Медуза Горгона</t>
   </si>
   <si>
-    <t>у49</t>
-  </si>
-  <si>
     <t>Термонаклейка Сейлор Мун Sailor Moon голубой фон</t>
   </si>
   <si>
-    <t>у40</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка лицо крылья</t>
   </si>
   <si>
-    <t>у45</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка с галактической магией</t>
   </si>
   <si>
-    <t>в8</t>
-  </si>
-  <si>
     <t>Термонаклейка Мотылек Луна</t>
   </si>
   <si>
-    <t>т38</t>
-  </si>
-  <si>
     <t>Термонаклейка Мэрилин Монро Поп арт жвачка</t>
   </si>
   <si>
-    <t>у13</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка силует туман лес птицы</t>
   </si>
   <si>
-    <t>у2</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка Природа Силует</t>
   </si>
   <si>
-    <t>т43</t>
-  </si>
-  <si>
     <t>Термонаклейка Берсерк Рыцарь с мечом под луной</t>
   </si>
   <si>
-    <t>в88</t>
-  </si>
-  <si>
     <t>Термонаклейка Крылья красочные маслом</t>
   </si>
   <si>
-    <t>у34</t>
-  </si>
-  <si>
     <t>Термонаклейка Пантера в огненной ярости красный</t>
   </si>
   <si>
-    <t>в85</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Розовые Ирис</t>
   </si>
   <si>
-    <t>т66</t>
-  </si>
-  <si>
     <t>Термонаклейка Яркий цветок акварель</t>
   </si>
   <si>
-    <t>в57</t>
-  </si>
-  <si>
     <t>Термонаклейка Матрешка Moscow</t>
   </si>
   <si>
-    <t>т7</t>
-  </si>
-  <si>
     <t>Термонаклейка Белая Лошадь Цветы</t>
   </si>
   <si>
-    <t>т40</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка холст растут цветы</t>
   </si>
   <si>
-    <t>у43</t>
-  </si>
-  <si>
     <t>Термонаклейка Тигр в витражном стиле</t>
   </si>
   <si>
-    <t>в19</t>
-  </si>
-  <si>
     <t>Термонаклейка Сердце отпечаток пальца красный</t>
   </si>
   <si>
-    <t>т69</t>
-  </si>
-  <si>
     <t>Термонаклейка Морская Ракушка Силует</t>
   </si>
   <si>
-    <t>т20</t>
-  </si>
-  <si>
     <t>Термонаклейка Лошадь в космических красках</t>
   </si>
   <si>
-    <t>в11</t>
-  </si>
-  <si>
     <t>Термонаклейка Медуза Горгона черно-белый</t>
   </si>
   <si>
-    <t>у32</t>
-  </si>
-  <si>
     <t>Термонаклейка Гарри Поттер и Хагрид курят</t>
   </si>
   <si>
-    <t>в83</t>
-  </si>
-  <si>
     <t>Термонаклейка Лошадь в золотых и мраморных тонах</t>
   </si>
   <si>
-    <t>в12</t>
-  </si>
-  <si>
     <t>Термонаклейка Матрешка цветы</t>
   </si>
   <si>
-    <t>т4</t>
-  </si>
-  <si>
     <t>Термонаклейка Черный Кот в цветах</t>
   </si>
   <si>
-    <t>т27</t>
-  </si>
-  <si>
     <t>Термонаклейка Лимоны и морской пейзаж</t>
   </si>
   <si>
-    <t>в48</t>
-  </si>
-  <si>
     <t>Термонаклейка Микки Маус бабочки цверы силует</t>
   </si>
   <si>
-    <t>у39</t>
-  </si>
-  <si>
     <t>Термонаклейка Сердце Букет Цветы</t>
   </si>
   <si>
-    <t>т32</t>
-  </si>
-  <si>
     <t>Термонаклейка Черный Кот Силует астрономия</t>
   </si>
   <si>
-    <t>т12</t>
-  </si>
-  <si>
     <t>Термонаклейка Чёрный волк красный луна</t>
   </si>
   <si>
-    <t>в25</t>
-  </si>
-  <si>
     <t>Термонаклейка Маленький принц на синем ките</t>
   </si>
   <si>
-    <t>в23</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Розовые Spring Blossoms</t>
   </si>
   <si>
-    <t>у24</t>
-  </si>
-  <si>
     <t>Термонаклейка Бабочки 4шт небо внутри</t>
   </si>
   <si>
-    <t>у38</t>
-  </si>
-  <si>
     <t>Термонаклейка Белый волк с цветами и узорами</t>
   </si>
   <si>
-    <t>в24</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка Силует Акварель Лес</t>
   </si>
   <si>
-    <t>т31</t>
-  </si>
-  <si>
     <t>Термонаклейка Мопс Собачка попа секси</t>
   </si>
   <si>
-    <t>т71</t>
-  </si>
-  <si>
     <t>Термонаклейка Мэрилин Монро фото буквы</t>
   </si>
   <si>
-    <t>т70</t>
-  </si>
-  <si>
     <t>Термонаклейка Самурай в маске воина</t>
   </si>
   <si>
-    <t>в80</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Пионы красные Pionies</t>
   </si>
   <si>
-    <t>у16</t>
-  </si>
-  <si>
     <t>Термонаклейка Белый Кот в цветах</t>
   </si>
   <si>
-    <t>т39</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка в цветах и золотом круге</t>
   </si>
   <si>
-    <t>в9</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка и 2 ласточки</t>
   </si>
   <si>
-    <t>т28</t>
-  </si>
-  <si>
     <t>Термонаклейка Девушка на закате держат руки море</t>
   </si>
   <si>
-    <t>т13</t>
-  </si>
-  <si>
     <t>Термонаклейка Инь Янь Леопарды</t>
   </si>
   <si>
-    <t>т15</t>
-  </si>
-  <si>
     <t>Термонаклейка Кит в Цветах</t>
   </si>
   <si>
-    <t>т42</t>
-  </si>
-  <si>
     <t>Термонаклейка Мэрилин Монро буквы</t>
   </si>
   <si>
-    <t>т45</t>
-  </si>
-  <si>
     <t>Термонаклейка Синий лев с золотыми акцентами</t>
   </si>
   <si>
-    <t>в15</t>
-  </si>
-  <si>
     <t>Термонаклейка Тигр с букетом жёлтых тюльпанов</t>
   </si>
   <si>
-    <t>в18</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Колибри 2шт</t>
   </si>
   <si>
-    <t>у6</t>
-  </si>
-  <si>
     <t>Термонаклейка Девочка Ангел с хвостами</t>
   </si>
   <si>
-    <t>д9</t>
-  </si>
-  <si>
     <t>2_а5</t>
   </si>
   <si>
     <t>Термонаклейка Весёлый енот выглядывает</t>
   </si>
   <si>
-    <t>д4</t>
-  </si>
-  <si>
     <t>Термонаклейка Лило и Стич сидят</t>
   </si>
   <si>
-    <t>б9</t>
-  </si>
-  <si>
     <t>Термонаклейка Зайчик ромашка в руках</t>
   </si>
   <si>
-    <t>б7</t>
-  </si>
-  <si>
     <t>Термонаклейка Девочка в зелёном с подсолнухом</t>
   </si>
   <si>
-    <t>д16</t>
-  </si>
-  <si>
     <t>Термонаклейка Марвел супергерои 4 верт фона</t>
   </si>
   <si>
-    <t>б4</t>
-  </si>
-  <si>
     <t>Термонаклейка львенок выглядывает игриво</t>
   </si>
   <si>
-    <t>д12</t>
-  </si>
-  <si>
     <t>Термонаклейка Соник Ежик бежит синий фон краски</t>
   </si>
   <si>
-    <t>б22</t>
-  </si>
-  <si>
     <t>Термонаклейка арбуз с сердцем и надписью</t>
   </si>
   <si>
-    <t>д13</t>
-  </si>
-  <si>
     <t>Термонаклейка Акула серфинг в очках</t>
   </si>
   <si>
-    <t>б39</t>
-  </si>
-  <si>
     <t>Термонаклейка Мишка сидит в очках Alone</t>
   </si>
   <si>
-    <t>б91</t>
-  </si>
-  <si>
     <t>Термонаклейка Улыбающийся лисенок в снегу</t>
   </si>
   <si>
-    <t>д19</t>
-  </si>
-  <si>
     <t>Термонаклейка Винни Пух и друзья на шаре</t>
   </si>
   <si>
-    <t>б44</t>
-  </si>
-  <si>
     <t>Термонаклейка Львенок счастливый</t>
   </si>
   <si>
-    <t>д20</t>
-  </si>
-  <si>
     <t>Термонаклейка Минни Маус поправляет бант</t>
   </si>
   <si>
-    <t>б42</t>
-  </si>
-  <si>
     <t>Термонаклейка Девочка в розовом платье</t>
   </si>
   <si>
-    <t>д7</t>
-  </si>
-  <si>
     <t>Термонаклейка Радужный котенок счастливый</t>
   </si>
   <si>
-    <t>д18</t>
-  </si>
-  <si>
     <t>Термонаклейка Сердечки термозаплатка</t>
   </si>
   <si>
-    <t>б46</t>
-  </si>
-  <si>
     <t>Термонаклейка Чёрный котенок в цветах</t>
   </si>
   <si>
-    <t>д3</t>
-  </si>
-  <si>
     <t>Термонаклейка львенок с милой улыбкой</t>
   </si>
   <si>
-    <t>д11</t>
-  </si>
-  <si>
     <t>Термонаклейка Девочка с бабочкой</t>
   </si>
   <si>
-    <t>д6</t>
-  </si>
-  <si>
     <t>Термонаклейка Кошка розово-фиолетовая крупный план</t>
   </si>
   <si>
-    <t>в5</t>
-  </si>
-  <si>
     <t>6_а4_настройки_60</t>
   </si>
   <si>
     <t>Термонаклейка Мэрилин Монро геометрия</t>
-  </si>
-  <si>
-    <t>т67</t>
   </si>
 </sst>
 </file>
@@ -813,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -823,6 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1125,18 +804,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="2" max="10" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,16 +853,10 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="B2" s="2">
         <v>16</v>
@@ -1211,22 +885,16 @@
       <c r="J2" s="2">
         <v>82</v>
       </c>
-      <c r="K2" s="2">
-        <v>0</v>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>16</v>
@@ -1255,22 +923,16 @@
       <c r="J3" s="2">
         <v>68</v>
       </c>
-      <c r="K3" s="2">
-        <v>0</v>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -1299,22 +961,16 @@
       <c r="J4" s="2">
         <v>56</v>
       </c>
-      <c r="K4" s="2">
-        <v>0</v>
+      <c r="K4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -1343,22 +999,16 @@
       <c r="J5" s="2">
         <v>46</v>
       </c>
-      <c r="K5" s="2">
-        <v>0</v>
+      <c r="K5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -1387,22 +1037,16 @@
       <c r="J6" s="2">
         <v>40</v>
       </c>
-      <c r="K6" s="2">
-        <v>0</v>
+      <c r="K6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>8</v>
@@ -1431,22 +1075,16 @@
       <c r="J7" s="2">
         <v>36</v>
       </c>
-      <c r="K7" s="2">
-        <v>0</v>
+      <c r="K7" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
@@ -1475,22 +1113,16 @@
       <c r="J8" s="3">
         <v>34</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
@@ -1519,22 +1151,16 @@
       <c r="J9" s="3">
         <v>34</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
@@ -1563,22 +1189,16 @@
       <c r="J10" s="3">
         <v>32</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -1607,22 +1227,16 @@
       <c r="J11" s="3">
         <v>32</v>
       </c>
-      <c r="K11" s="3">
-        <v>0</v>
+      <c r="K11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
@@ -1651,22 +1265,16 @@
       <c r="J12" s="3">
         <v>32</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3">
         <v>4</v>
@@ -1695,22 +1303,16 @@
       <c r="J13" s="3">
         <v>26</v>
       </c>
-      <c r="K13" s="3">
-        <v>0</v>
+      <c r="K13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
@@ -1739,22 +1341,16 @@
       <c r="J14" s="3">
         <v>24</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3">
         <v>8</v>
@@ -1783,22 +1379,16 @@
       <c r="J15" s="3">
         <v>22</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -1827,22 +1417,16 @@
       <c r="J16" s="3">
         <v>20</v>
       </c>
-      <c r="K16" s="3">
-        <v>0</v>
+      <c r="K16" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -1871,22 +1455,16 @@
       <c r="J17" s="3">
         <v>20</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
+      <c r="K17" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
@@ -1915,22 +1493,16 @@
       <c r="J18" s="3">
         <v>18</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
+      <c r="K18" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3">
         <v>6</v>
@@ -1959,22 +1531,16 @@
       <c r="J19" s="3">
         <v>18</v>
       </c>
-      <c r="K19" s="3">
-        <v>0</v>
+      <c r="K19" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3">
         <v>2</v>
@@ -2003,22 +1569,16 @@
       <c r="J20" s="3">
         <v>18</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3">
         <v>5</v>
@@ -2047,22 +1607,16 @@
       <c r="J21" s="3">
         <v>16</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
+      <c r="K21" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -2091,22 +1645,16 @@
       <c r="J22" s="4">
         <v>16</v>
       </c>
-      <c r="K22" s="4">
-        <v>0</v>
+      <c r="K22" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -2135,22 +1683,16 @@
       <c r="J23" s="4">
         <v>14</v>
       </c>
-      <c r="K23" s="4">
-        <v>0</v>
+      <c r="K23" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -2179,22 +1721,16 @@
       <c r="J24" s="4">
         <v>14</v>
       </c>
-      <c r="K24" s="4">
-        <v>0</v>
+      <c r="K24" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>
@@ -2223,22 +1759,16 @@
       <c r="J25" s="4">
         <v>14</v>
       </c>
-      <c r="K25" s="4">
-        <v>0</v>
+      <c r="K25" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -2267,22 +1797,16 @@
       <c r="J26" s="4">
         <v>12</v>
       </c>
-      <c r="K26" s="4">
-        <v>0</v>
+      <c r="K26" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B27" s="4">
         <v>0</v>
@@ -2311,22 +1835,16 @@
       <c r="J27" s="4">
         <v>12</v>
       </c>
-      <c r="K27" s="4">
-        <v>0</v>
+      <c r="K27" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B28" s="4">
         <v>2</v>
@@ -2355,22 +1873,16 @@
       <c r="J28" s="4">
         <v>12</v>
       </c>
-      <c r="K28" s="4">
-        <v>0</v>
+      <c r="K28" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B29" s="4">
         <v>4</v>
@@ -2399,22 +1911,16 @@
       <c r="J29" s="4">
         <v>12</v>
       </c>
-      <c r="K29" s="4">
-        <v>0</v>
+      <c r="K29" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B30" s="4">
         <v>0</v>
@@ -2443,22 +1949,16 @@
       <c r="J30" s="4">
         <v>10</v>
       </c>
-      <c r="K30" s="4">
-        <v>0</v>
+      <c r="K30" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
@@ -2487,22 +1987,16 @@
       <c r="J31" s="4">
         <v>10</v>
       </c>
-      <c r="K31" s="4">
-        <v>0</v>
+      <c r="K31" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
@@ -2531,22 +2025,16 @@
       <c r="J32" s="4">
         <v>10</v>
       </c>
-      <c r="K32" s="4">
-        <v>0</v>
+      <c r="K32" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B33" s="4">
         <v>0</v>
@@ -2575,22 +2063,16 @@
       <c r="J33" s="4">
         <v>8</v>
       </c>
-      <c r="K33" s="4">
-        <v>0</v>
+      <c r="K33" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
@@ -2619,22 +2101,16 @@
       <c r="J34" s="4">
         <v>8</v>
       </c>
-      <c r="K34" s="4">
-        <v>0</v>
+      <c r="K34" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B35" s="4">
         <v>2</v>
@@ -2663,22 +2139,16 @@
       <c r="J35" s="4">
         <v>8</v>
       </c>
-      <c r="K35" s="4">
-        <v>0</v>
+      <c r="K35" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -2707,22 +2177,16 @@
       <c r="J36" s="4">
         <v>8</v>
       </c>
-      <c r="K36" s="4">
-        <v>0</v>
+      <c r="K36" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B37" s="4">
         <v>0</v>
@@ -2751,22 +2215,16 @@
       <c r="J37" s="4">
         <v>8</v>
       </c>
-      <c r="K37" s="4">
-        <v>0</v>
+      <c r="K37" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B38" s="4">
         <v>2</v>
@@ -2795,22 +2253,16 @@
       <c r="J38" s="4">
         <v>8</v>
       </c>
-      <c r="K38" s="4">
-        <v>0</v>
+      <c r="K38" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B39" s="4">
         <v>0</v>
@@ -2839,22 +2291,16 @@
       <c r="J39" s="4">
         <v>6</v>
       </c>
-      <c r="K39" s="4">
-        <v>0</v>
+      <c r="K39" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B40" s="4">
         <v>0</v>
@@ -2883,22 +2329,16 @@
       <c r="J40" s="4">
         <v>6</v>
       </c>
-      <c r="K40" s="4">
-        <v>0</v>
+      <c r="K40" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
@@ -2927,22 +2367,16 @@
       <c r="J41" s="4">
         <v>6</v>
       </c>
-      <c r="K41" s="4">
-        <v>0</v>
+      <c r="K41" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
@@ -2971,22 +2405,16 @@
       <c r="J42" s="4">
         <v>6</v>
       </c>
-      <c r="K42" s="4">
-        <v>0</v>
+      <c r="K42" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B43" s="4">
         <v>0</v>
@@ -3015,22 +2443,16 @@
       <c r="J43" s="4">
         <v>6</v>
       </c>
-      <c r="K43" s="4">
-        <v>0</v>
+      <c r="K43" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B44" s="4">
         <v>0</v>
@@ -3059,22 +2481,16 @@
       <c r="J44" s="4">
         <v>6</v>
       </c>
-      <c r="K44" s="4">
-        <v>0</v>
+      <c r="K44" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B45" s="4">
         <v>6</v>
@@ -3103,22 +2519,16 @@
       <c r="J45" s="4">
         <v>6</v>
       </c>
-      <c r="K45" s="4">
-        <v>0</v>
+      <c r="K45" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
@@ -3147,22 +2557,16 @@
       <c r="J46" s="4">
         <v>6</v>
       </c>
-      <c r="K46" s="4">
-        <v>0</v>
+      <c r="K46" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B47" s="4">
         <v>0</v>
@@ -3191,22 +2595,16 @@
       <c r="J47" s="4">
         <v>6</v>
       </c>
-      <c r="K47" s="4">
-        <v>0</v>
+      <c r="K47" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
@@ -3235,22 +2633,16 @@
       <c r="J48" s="4">
         <v>6</v>
       </c>
-      <c r="K48" s="4">
-        <v>0</v>
+      <c r="K48" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="B49" s="4">
         <v>2</v>
@@ -3279,22 +2671,16 @@
       <c r="J49" s="4">
         <v>6</v>
       </c>
-      <c r="K49" s="4">
-        <v>0</v>
+      <c r="K49" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="B50" s="4">
         <v>2</v>
@@ -3323,22 +2709,16 @@
       <c r="J50" s="4">
         <v>6</v>
       </c>
-      <c r="K50" s="4">
-        <v>0</v>
+      <c r="K50" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="B51" s="4">
         <v>6</v>
@@ -3367,22 +2747,16 @@
       <c r="J51" s="4">
         <v>6</v>
       </c>
-      <c r="K51" s="4">
-        <v>0</v>
+      <c r="K51" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="B52" s="4">
         <v>0</v>
@@ -3411,22 +2785,16 @@
       <c r="J52" s="4">
         <v>6</v>
       </c>
-      <c r="K52" s="4">
-        <v>0</v>
+      <c r="K52" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="B53" s="4">
         <v>0</v>
@@ -3455,22 +2823,16 @@
       <c r="J53" s="4">
         <v>6</v>
       </c>
-      <c r="K53" s="4">
-        <v>0</v>
+      <c r="K53" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="B54" s="4">
         <v>0</v>
@@ -3499,22 +2861,16 @@
       <c r="J54" s="4">
         <v>6</v>
       </c>
-      <c r="K54" s="4">
-        <v>0</v>
+      <c r="K54" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="B55" s="4">
         <v>0</v>
@@ -3543,22 +2899,16 @@
       <c r="J55" s="4">
         <v>6</v>
       </c>
-      <c r="K55" s="4">
-        <v>0</v>
+      <c r="K55" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B56" s="4">
         <v>0</v>
@@ -3587,22 +2937,16 @@
       <c r="J56" s="4">
         <v>6</v>
       </c>
-      <c r="K56" s="4">
-        <v>0</v>
+      <c r="K56" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B57" s="4">
         <v>0</v>
@@ -3631,22 +2975,16 @@
       <c r="J57" s="4">
         <v>4</v>
       </c>
-      <c r="K57" s="4">
-        <v>0</v>
+      <c r="K57" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="B58" s="4">
         <v>0</v>
@@ -3675,22 +3013,16 @@
       <c r="J58" s="4">
         <v>4</v>
       </c>
-      <c r="K58" s="4">
-        <v>0</v>
+      <c r="K58" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N58" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="B59" s="4">
         <v>0</v>
@@ -3719,22 +3051,16 @@
       <c r="J59" s="4">
         <v>4</v>
       </c>
-      <c r="K59" s="4">
-        <v>0</v>
+      <c r="K59" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="B60" s="4">
         <v>0</v>
@@ -3763,22 +3089,16 @@
       <c r="J60" s="4">
         <v>4</v>
       </c>
-      <c r="K60" s="4">
-        <v>0</v>
+      <c r="K60" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="B61" s="4">
         <v>0</v>
@@ -3807,22 +3127,16 @@
       <c r="J61" s="4">
         <v>4</v>
       </c>
-      <c r="K61" s="4">
-        <v>0</v>
+      <c r="K61" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="B62" s="4">
         <v>2</v>
@@ -3851,22 +3165,16 @@
       <c r="J62" s="4">
         <v>4</v>
       </c>
-      <c r="K62" s="4">
-        <v>0</v>
+      <c r="K62" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="B63" s="4">
         <v>0</v>
@@ -3895,22 +3203,16 @@
       <c r="J63" s="4">
         <v>4</v>
       </c>
-      <c r="K63" s="4">
-        <v>0</v>
+      <c r="K63" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="B64" s="4">
         <v>0</v>
@@ -3939,22 +3241,16 @@
       <c r="J64" s="4">
         <v>4</v>
       </c>
-      <c r="K64" s="4">
-        <v>0</v>
+      <c r="K64" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="B65" s="4">
         <v>2</v>
@@ -3983,22 +3279,16 @@
       <c r="J65" s="4">
         <v>4</v>
       </c>
-      <c r="K65" s="4">
-        <v>0</v>
+      <c r="K65" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="B66" s="4">
         <v>0</v>
@@ -4027,22 +3317,16 @@
       <c r="J66" s="4">
         <v>4</v>
       </c>
-      <c r="K66" s="4">
-        <v>0</v>
+      <c r="K66" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N66" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="B67" s="4">
         <v>2</v>
@@ -4071,22 +3355,16 @@
       <c r="J67" s="4">
         <v>4</v>
       </c>
-      <c r="K67" s="4">
-        <v>0</v>
+      <c r="K67" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="B68" s="4">
         <v>0</v>
@@ -4115,22 +3393,16 @@
       <c r="J68" s="4">
         <v>4</v>
       </c>
-      <c r="K68" s="4">
-        <v>0</v>
+      <c r="K68" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="B69" s="4">
         <v>0</v>
@@ -4159,22 +3431,16 @@
       <c r="J69" s="4">
         <v>2</v>
       </c>
-      <c r="K69" s="4">
-        <v>0</v>
+      <c r="K69" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="B70" s="4">
         <v>0</v>
@@ -4203,22 +3469,16 @@
       <c r="J70" s="4">
         <v>2</v>
       </c>
-      <c r="K70" s="4">
-        <v>0</v>
+      <c r="K70" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="B71" s="4">
         <v>0</v>
@@ -4247,22 +3507,16 @@
       <c r="J71" s="4">
         <v>2</v>
       </c>
-      <c r="K71" s="4">
-        <v>0</v>
+      <c r="K71" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="M71" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="B72" s="4">
         <v>0</v>
@@ -4291,22 +3545,16 @@
       <c r="J72" s="4">
         <v>2</v>
       </c>
-      <c r="K72" s="4">
-        <v>0</v>
+      <c r="K72" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="B73" s="4">
         <v>2</v>
@@ -4335,22 +3583,16 @@
       <c r="J73" s="4">
         <v>2</v>
       </c>
-      <c r="K73" s="4">
-        <v>0</v>
+      <c r="K73" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N73" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="B74" s="5">
         <v>0</v>
@@ -4379,22 +3621,16 @@
       <c r="J74" s="5">
         <v>2</v>
       </c>
-      <c r="K74" s="5">
-        <v>0</v>
+      <c r="K74" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="M74" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N74" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="B75" s="5">
         <v>0</v>
@@ -4423,22 +3659,16 @@
       <c r="J75" s="5">
         <v>2</v>
       </c>
-      <c r="K75" s="5">
-        <v>0</v>
+      <c r="K75" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="M75" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N75" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="B76" s="5">
         <v>0</v>
@@ -4467,22 +3697,16 @@
       <c r="J76" s="5">
         <v>2</v>
       </c>
-      <c r="K76" s="5">
-        <v>0</v>
+      <c r="K76" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="M76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N76" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="B77" s="5">
         <v>0</v>
@@ -4511,22 +3735,16 @@
       <c r="J77" s="5">
         <v>2</v>
       </c>
-      <c r="K77" s="5">
-        <v>0</v>
+      <c r="K77" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="M77" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N77" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="B78" s="5">
         <v>2</v>
@@ -4555,22 +3773,16 @@
       <c r="J78" s="5">
         <v>2</v>
       </c>
-      <c r="K78" s="5">
-        <v>0</v>
+      <c r="K78" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M78" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N78" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="B79" s="5">
         <v>0</v>
@@ -4599,22 +3811,16 @@
       <c r="J79" s="5">
         <v>2</v>
       </c>
-      <c r="K79" s="5">
-        <v>0</v>
+      <c r="K79" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="M79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N79" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="B80" s="5">
         <v>2</v>
@@ -4643,22 +3849,16 @@
       <c r="J80" s="5">
         <v>2</v>
       </c>
-      <c r="K80" s="5">
-        <v>0</v>
+      <c r="K80" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="M80" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N80" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="B81" s="5">
         <v>0</v>
@@ -4687,22 +3887,16 @@
       <c r="J81" s="5">
         <v>2</v>
       </c>
-      <c r="K81" s="5">
-        <v>0</v>
+      <c r="K81" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="M81" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N81" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="B82" s="5">
         <v>2</v>
@@ -4731,22 +3925,16 @@
       <c r="J82" s="5">
         <v>2</v>
       </c>
-      <c r="K82" s="5">
-        <v>0</v>
+      <c r="K82" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="M82" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N82" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="B83" s="5">
         <v>2</v>
@@ -4775,22 +3963,16 @@
       <c r="J83" s="5">
         <v>2</v>
       </c>
-      <c r="K83" s="5">
-        <v>0</v>
+      <c r="K83" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="M83" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N83" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="B84" s="5">
         <v>0</v>
@@ -4819,22 +4001,16 @@
       <c r="J84" s="5">
         <v>2</v>
       </c>
-      <c r="K84" s="5">
-        <v>0</v>
+      <c r="K84" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="M84" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N84" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="B85" s="5">
         <v>0</v>
@@ -4863,22 +4039,16 @@
       <c r="J85" s="5">
         <v>2</v>
       </c>
-      <c r="K85" s="5">
-        <v>0</v>
+      <c r="K85" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="M85" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N85" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="B86" s="5">
         <v>0</v>
@@ -4907,22 +4077,16 @@
       <c r="J86" s="5">
         <v>2</v>
       </c>
-      <c r="K86" s="5">
-        <v>0</v>
+      <c r="K86" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="M86" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N86" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="B87" s="5">
         <v>2</v>
@@ -4951,22 +4115,16 @@
       <c r="J87" s="5">
         <v>2</v>
       </c>
-      <c r="K87" s="5">
-        <v>0</v>
+      <c r="K87" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="M87" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N87" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="B88" s="5">
         <v>4</v>
@@ -4995,22 +4153,16 @@
       <c r="J88" s="5">
         <v>56</v>
       </c>
-      <c r="K88" s="5">
-        <v>0</v>
+      <c r="K88" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="M88" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N88" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="B89" s="5">
         <v>4</v>
@@ -5039,22 +4191,16 @@
       <c r="J89" s="5">
         <v>36</v>
       </c>
-      <c r="K89" s="5">
-        <v>0</v>
+      <c r="K89" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="M89" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N89" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="B90" s="5">
         <v>2</v>
@@ -5083,22 +4229,16 @@
       <c r="J90" s="5">
         <v>20</v>
       </c>
-      <c r="K90" s="5">
-        <v>0</v>
+      <c r="K90" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="M90" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N90" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="B91" s="5">
         <v>2</v>
@@ -5127,22 +4267,16 @@
       <c r="J91" s="5">
         <v>20</v>
       </c>
-      <c r="K91" s="5">
-        <v>0</v>
+      <c r="K91" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="M91" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N91" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="B92" s="5">
         <v>2</v>
@@ -5171,22 +4305,16 @@
       <c r="J92" s="5">
         <v>16</v>
       </c>
-      <c r="K92" s="5">
-        <v>0</v>
+      <c r="K92" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N92" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="B93" s="5">
         <v>6</v>
@@ -5215,22 +4343,16 @@
       <c r="J93" s="5">
         <v>16</v>
       </c>
-      <c r="K93" s="5">
-        <v>0</v>
+      <c r="K93" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="M93" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N93" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="B94" s="5">
         <v>1</v>
@@ -5259,22 +4381,16 @@
       <c r="J94" s="5">
         <v>16</v>
       </c>
-      <c r="K94" s="5">
-        <v>0</v>
+      <c r="K94" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="M94" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N94" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="B95" s="5">
         <v>1</v>
@@ -5303,22 +4419,16 @@
       <c r="J95" s="5">
         <v>12</v>
       </c>
-      <c r="K95" s="5">
-        <v>0</v>
+      <c r="K95" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="M95" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N95" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c r="B96" s="5">
         <v>2</v>
@@ -5347,22 +4457,16 @@
       <c r="J96" s="5">
         <v>12</v>
       </c>
-      <c r="K96" s="5">
-        <v>0</v>
+      <c r="K96" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="M96" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N96" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="B97" s="5">
         <v>1</v>
@@ -5391,22 +4495,16 @@
       <c r="J97" s="5">
         <v>8</v>
       </c>
-      <c r="K97" s="5">
-        <v>0</v>
+      <c r="K97" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="M97" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N97" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="B98" s="5">
         <v>1</v>
@@ -5435,22 +4533,16 @@
       <c r="J98" s="5">
         <v>8</v>
       </c>
-      <c r="K98" s="5">
-        <v>0</v>
+      <c r="K98" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="M98" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N98" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="B99" s="5">
         <v>1</v>
@@ -5479,22 +4571,16 @@
       <c r="J99" s="5">
         <v>8</v>
       </c>
-      <c r="K99" s="5">
-        <v>0</v>
+      <c r="K99" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="M99" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N99" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="B100" s="5">
         <v>1</v>
@@ -5523,22 +4609,16 @@
       <c r="J100" s="5">
         <v>4</v>
       </c>
-      <c r="K100" s="5">
-        <v>0</v>
+      <c r="K100" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="M100" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N100" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="B101" s="5">
         <v>1</v>
@@ -5567,22 +4647,16 @@
       <c r="J101" s="5">
         <v>4</v>
       </c>
-      <c r="K101" s="5">
-        <v>0</v>
+      <c r="K101" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="M101" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N101" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="B102" s="5">
         <v>1</v>
@@ -5611,22 +4685,16 @@
       <c r="J102" s="5">
         <v>4</v>
       </c>
-      <c r="K102" s="5">
-        <v>0</v>
+      <c r="K102" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="M102" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N102" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="B103" s="5">
         <v>0</v>
@@ -5655,22 +4723,16 @@
       <c r="J103" s="5">
         <v>4</v>
       </c>
-      <c r="K103" s="5">
-        <v>0</v>
+      <c r="K103" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="M103" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N103" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="B104" s="5">
         <v>0</v>
@@ -5699,22 +4761,16 @@
       <c r="J104" s="5">
         <v>4</v>
       </c>
-      <c r="K104" s="5">
-        <v>0</v>
+      <c r="K104" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="M104" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N104" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="B105" s="5">
         <v>1</v>
@@ -5743,22 +4799,16 @@
       <c r="J105" s="5">
         <v>4</v>
       </c>
-      <c r="K105" s="5">
-        <v>0</v>
+      <c r="K105" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="M105" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N105" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="B106" s="5">
         <v>1</v>
@@ -5787,22 +4837,16 @@
       <c r="J106" s="5">
         <v>4</v>
       </c>
-      <c r="K106" s="5">
-        <v>0</v>
+      <c r="K106" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="M106" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N106" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="B107" s="5">
         <v>0</v>
@@ -5831,22 +4875,16 @@
       <c r="J107" s="5">
         <v>4</v>
       </c>
-      <c r="K107" s="5">
-        <v>0</v>
+      <c r="K107" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="M107" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N107" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>229</v>
+        <v>121</v>
       </c>
       <c r="B108" s="5">
         <v>1</v>
@@ -5875,22 +4913,16 @@
       <c r="J108" s="5">
         <v>4</v>
       </c>
-      <c r="K108" s="5">
-        <v>0</v>
+      <c r="K108" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="M108" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N108" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="B109" s="6">
         <v>0</v>
@@ -5919,22 +4951,16 @@
       <c r="J109" s="6">
         <v>10</v>
       </c>
-      <c r="K109" s="6">
-        <v>0</v>
+      <c r="K109" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="M109" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="N109" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="B110" s="6">
         <v>0</v>
@@ -5963,17 +4989,45 @@
       <c r="J110" s="6">
         <v>6</v>
       </c>
-      <c r="K110" s="6">
-        <v>0</v>
+      <c r="K110" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="M110" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="N110" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="7">
+        <f>SUM(B2:B110)</f>
+        <v>175</v>
+      </c>
+      <c r="C111" s="7">
+        <f t="shared" ref="C111:I111" si="0">SUM(C2:C110)</f>
+        <v>134</v>
+      </c>
+      <c r="D111" s="7">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="E111" s="7">
+        <f t="shared" si="0"/>
+        <v>238</v>
+      </c>
+      <c r="F111" s="7">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="G111" s="7">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="H111" s="7">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="I111" s="7">
+        <f t="shared" si="0"/>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
